--- a/data/food_options.xlsx
+++ b/data/food_options.xlsx
@@ -18,11 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -471,26 +469,23 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="22.83203125" bestFit="1" customWidth="1" min="1" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>breakfast_option</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>breakfast_description</t>
         </is>
@@ -616,7 +611,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,30 +621,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="33" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="37.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>lunch</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>lunch_description</t>
         </is>
@@ -774,8 +765,25 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/data/food_options.xlsx
+++ b/data/food_options.xlsx
@@ -12,23 +12,28 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="meal_plans" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,12 +47,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -60,15 +80,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,17 +496,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>breakfast_option</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>breakfast_description</t>
         </is>
@@ -630,17 +651,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>lunch</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>lunch_description</t>
         </is>
@@ -795,28 +816,24 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col width="18.5" customWidth="1" min="2" max="2"/>
-    <col width="35.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>dinner</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>dinner_description</t>
         </is>
@@ -852,7 +869,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>aloo tamatar and sabji and raita and salad</t>
+          <t>aloo tamatar and sabji and salad and raita</t>
         </is>
       </c>
     </row>
@@ -869,7 +886,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>khichadi and raita and papad</t>
+          <t>khichadi and papad and raita</t>
         </is>
       </c>
     </row>
@@ -881,12 +898,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>south indian</t>
+          <t>chhole meal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sambhar dosa or idli or lemon rice</t>
+          <t>chhole pulao and raita</t>
         </is>
       </c>
     </row>
@@ -898,12 +915,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chhole pulao</t>
+          <t>south indian meal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chhole pulao or bhatiire and raita</t>
+          <t>sambhar dosa or idli or lemon rice</t>
         </is>
       </c>
     </row>
@@ -920,7 +937,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>order junk or go outside</t>
+          <t>order junk</t>
         </is>
       </c>
     </row>
@@ -932,17 +949,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>protein rich tikki</t>
+          <t>tikki and salad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>protein rich tikki and salad</t>
+          <t>tikki and salad</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -958,7 +975,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col width="22.6640625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -988,7 +1008,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="3" t="n">
         <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1013,7 +1033,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1038,7 +1058,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="3" t="n">
         <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1063,7 +1083,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
